--- a/medicine/Mort/L'Entrée_du_cimetière/L'Entrée_du_cimetière.xlsx
+++ b/medicine/Mort/L'Entrée_du_cimetière/L'Entrée_du_cimetière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Entr%C3%A9e_du_cimeti%C3%A8re</t>
+          <t>L'Entrée_du_cimetière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Entrée du cimetière (en allemand : Friedhofseingang) est un tableau du peintre allemand Caspar David Friedrich, réalisé vers 1825. Il fait partie de la collection de la Galerie Neue Meister à Dresde en Allemagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Entr%C3%A9e_du_cimeti%C3%A8re</t>
+          <t>L'Entrée_du_cimetière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce tableau représente l'entrée du cimetière Trinitatis de Dresde. 
 1er plan : Des parents éplorés, habillés de noir, s'appuient sur les piliers de l'entrée. Ils représentent le deuil et la tristesse d'avoir perdu un être qui leur était cher : un tombeau d'enfant est ouvert au premier plan. Cet enfant est représenté sous la forme d'un crocodile. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Entr%C3%A9e_du_cimeti%C3%A8re</t>
+          <t>L'Entrée_du_cimetière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau serait une œuvre inachevée[1]. Friedrich a alors une maladie cérébrale qui l'emportera. C'est à cette époque que le thème des cimetières apparaît dans son œuvre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau serait une œuvre inachevée. Friedrich a alors une maladie cérébrale qui l'emportera. C'est à cette époque que le thème des cimetières apparaît dans son œuvre.
 </t>
         </is>
       </c>
